--- a/월배당ETF_목록.xlsx
+++ b/월배당ETF_목록.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12,820원</t>
+          <t>12,280원</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.34%</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16,215원</t>
+          <t>15,750원</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>107,475원</t>
+          <t>107,520원</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21,250원</t>
+          <t>20,695원</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.35%</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14,280원</t>
+          <t>14,210원</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82,610원</t>
+          <t>81,972원</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12,455원</t>
+          <t>12,380원</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14,745원</t>
+          <t>14,635원</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30,010원</t>
+          <t>30,025원</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14,480원</t>
+          <t>14,325원</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14,055원</t>
+          <t>13,735원</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.42%</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8,680원</t>
+          <t>8,655원</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9,990원</t>
+          <t>9,805원</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>0.68%</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12,840원</t>
+          <t>12,975원</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4,255원</t>
+          <t>4,235원</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>125,535원</t>
+          <t>126,655원</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90,895원</t>
+          <t>91,035원</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>103,650원</t>
+          <t>103,740원</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11,600원</t>
+          <t>11,660원</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.51%</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11,930원</t>
+          <t>11,840원</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4,720원</t>
+          <t>4,700원</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14,940원</t>
+          <t>15,005원</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12,160원</t>
+          <t>12,090원</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12,040원</t>
+          <t>12,045원</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6,690원</t>
+          <t>6,665원</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16,225원</t>
+          <t>16,265원</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18,030원</t>
+          <t>18,075원</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>100,725원</t>
+          <t>100,520원</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>117,350원</t>
+          <t>117,415원</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11,005원</t>
+          <t>11,085원</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10,035원</t>
+          <t>10,090원</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11,605원</t>
+          <t>11,630원</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17,400원</t>
+          <t>16,955원</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>0.49%</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11,015원</t>
+          <t>10,945원</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>52,530원</t>
+          <t>52,545원</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11,075원</t>
+          <t>11,200원</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>44,785원</t>
+          <t>44,380원</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7,565원</t>
+          <t>7,495원</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.30%</t>
+          <t>0.31%</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10,955원</t>
+          <t>10,810원</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>0.30%</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15,175원</t>
+          <t>15,080원</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>48,140원</t>
+          <t>48,050원</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12,015원</t>
+          <t>11,935원</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10,830원</t>
+          <t>10,755원</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9,650원</t>
+          <t>9,570원</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10,700원</t>
+          <t>10,650원</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10,810원</t>
+          <t>10,875원</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>49,305원</t>
+          <t>49,250원</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12,560원</t>
+          <t>12,365원</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21,150원</t>
+          <t>20,285원</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>0.34%</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10,850원</t>
+          <t>10,935원</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11,120원</t>
+          <t>11,205원</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11,030원</t>
+          <t>11,090원</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>64,120원</t>
+          <t>63,870원</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12,030원</t>
+          <t>11,910원</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8,710원</t>
+          <t>8,695원</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.04%</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8,060원</t>
+          <t>7,965원</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8,810원</t>
+          <t>8,800원</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13,555원</t>
+          <t>13,715원</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>0.81%</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8,650원</t>
+          <t>8,705원</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.25%</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10,185원</t>
+          <t>10,210원</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7,850원</t>
+          <t>7,790원</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.04%</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9,070원</t>
+          <t>9,015원</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9,590원</t>
+          <t>9,530원</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>1.48%</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,670원</t>
+          <t>4,660원</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8,665원</t>
+          <t>8,565원</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.26%</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>9,285원</t>
+          <t>9,265원</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10,735원</t>
+          <t>10,855원</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.24%</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>9,995원</t>
+          <t>10,040원</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.25%</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9,800원</t>
+          <t>9,855원</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.27%</t>
+          <t>1.26%</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1,022,875원</t>
+          <t>1,023,192원</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9,765원</t>
+          <t>9,685원</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>0.52%</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>8,475원</t>
+          <t>8,405원</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>1.02%</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10,810원</t>
+          <t>10,830원</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>9,210원</t>
+          <t>9,175원</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11,095원</t>
+          <t>11,230원</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.16%</t>
+          <t>1.15%</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>9,270원</t>
+          <t>9,230원</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>1.00%</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8,785원</t>
+          <t>8,700원</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>17,150원</t>
+          <t>16,410원</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.41%</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9,825원</t>
+          <t>9,885원</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>1.20%</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9,820원</t>
+          <t>9,895원</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11,550원</t>
+          <t>11,285원</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>1.39%</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10,295원</t>
+          <t>10,230원</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9,940원</t>
+          <t>9,915원</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>8,855원</t>
+          <t>8,805원</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.38%</t>
+          <t>1.39%</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>11,440원</t>
+          <t>11,640원</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.60%</t>
+          <t>1.57%</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10,075원</t>
+          <t>10,135원</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.66%</t>
+          <t>1.65%</t>
         </is>
       </c>
     </row>
@@ -3521,32 +3521,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>493810</t>
+          <t>493420</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TIGER 미국AI빅테크10타겟데일리커버드콜월퇴직70%개인연금</t>
+          <t>SOL 미국배당다우존스2호월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10,330원</t>
+          <t>10,090원</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>128원</t>
+          <t>18원</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>0.18%</t>
         </is>
       </c>
     </row>
@@ -3556,32 +3556,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>494210</t>
+          <t>493810</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SOL 미국500타겟커버드콜액티브월퇴직70%개인연금</t>
+          <t>TIGER 미국AI빅테크10타겟데일리커버드콜월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10,050원</t>
+          <t>10,450원</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>98원</t>
+          <t>128원</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>1.22%</t>
         </is>
       </c>
     </row>
@@ -3591,32 +3591,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>494300</t>
+          <t>494210</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>KODEX 미국나스닥100데일리커버드콜OTM월퇴직70%개인연금</t>
+          <t>SOL 미국500타겟커버드콜액티브월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>9,535원</t>
+          <t>10,065원</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>153원</t>
+          <t>98원</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.60%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -3626,32 +3626,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>494420</t>
+          <t>494300</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PLUS 미국배당증가성장주데일리커버드콜월퇴직70%개인연금</t>
+          <t>KODEX 미국나스닥100데일리커버드콜OTM월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>9,170원</t>
+          <t>9,600원</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>110원</t>
+          <t>153원</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>1.59%</t>
         </is>
       </c>
     </row>
@@ -3661,17 +3661,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>495040</t>
+          <t>494420</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PLUS 코리아밸류업월퇴직70%개인연금</t>
+          <t>PLUS 미국배당증가성장주데일리커버드콜월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>12,795원</t>
+          <t>9,185원</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3681,12 +3681,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>20원</t>
+          <t>110원</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>1.20%</t>
         </is>
       </c>
     </row>
@@ -3696,17 +3696,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>495050</t>
+          <t>495040</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>RISE 코리아밸류업월퇴직70%개인연금</t>
+          <t>PLUS 코리아밸류업월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12,905원</t>
+          <t>12,572원</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>40원</t>
+          <t>20원</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.16%</t>
         </is>
       </c>
     </row>
@@ -3731,32 +3731,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>495230</t>
+          <t>495050</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>KoAct 코리아밸류업액티브월퇴직70%개인연금</t>
+          <t>RISE 코리아밸류업월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13,050원</t>
+          <t>12,685원</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>25원</t>
+          <t>40원</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.32%</t>
         </is>
       </c>
     </row>
@@ -3766,32 +3766,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>495330</t>
+          <t>495230</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1Q 코리아밸류업월퇴직70%개인연금</t>
+          <t>KoAct 코리아밸류업액티브월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12,845원</t>
+          <t>12,780원</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>90원</t>
+          <t>25원</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>0.20%</t>
         </is>
       </c>
     </row>
@@ -3801,32 +3801,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>495850</t>
+          <t>495330</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>KODEX 코리아밸류업월퇴직70%개인연금</t>
+          <t>1Q 코리아밸류업월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>12,920원</t>
+          <t>12,570원</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>20원</t>
+          <t>90원</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -3836,17 +3836,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>496080</t>
+          <t>495850</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TIGER 코리아밸류업월퇴직70%개인연금</t>
+          <t>KODEX 코리아밸류업월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12,920원</t>
+          <t>12,680원</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.16%</t>
         </is>
       </c>
     </row>
@@ -3871,32 +3871,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>497880</t>
+          <t>496080</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SOL CD금리&amp;머니마켓액티브월퇴직100%개인연금</t>
+          <t>TIGER 코리아밸류업월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>50,070원</t>
+          <t>12,690원</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>130원</t>
+          <t>20원</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>0.16%</t>
         </is>
       </c>
     </row>
@@ -3906,32 +3906,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>498400</t>
+          <t>497880</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>KODEX 200타겟위클리커버드콜월퇴직70%개인연금</t>
+          <t>SOL CD금리&amp;머니마켓액티브월퇴직100%개인연금</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>11,305원</t>
+          <t>50,085원</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>161원</t>
+          <t>130원</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.42%</t>
+          <t>0.26%</t>
         </is>
       </c>
     </row>
@@ -3941,32 +3941,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>499150</t>
+          <t>498400</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SOL 미국S&amp;P500엔화노출(H)월퇴직70%개인연금</t>
+          <t>KODEX 200타겟위클리커버드콜월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10,050원</t>
+          <t>11,205원</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>9원</t>
+          <t>161원</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>1.44%</t>
         </is>
       </c>
     </row>
@@ -3976,32 +3976,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>497780</t>
+          <t>499150</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>KoAct 미국천연가스인프라액티브월퇴직70%개인연금</t>
+          <t>SOL 미국S&amp;P500엔화노출(H)월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9,100원</t>
+          <t>10,040원</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>35원</t>
+          <t>9원</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>0.09%</t>
         </is>
       </c>
     </row>
@@ -4011,32 +4011,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>498860</t>
+          <t>497780</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>RISE 코리아금융고배당월퇴직70%개인연금</t>
+          <t>KoAct 미국천연가스인프라액티브월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>15,275원</t>
+          <t>9,050원</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>55원</t>
+          <t>35원</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>0.39%</t>
         </is>
       </c>
     </row>
@@ -4046,32 +4046,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0000D0</t>
+          <t>498860</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TIGER 엔비디아미국채커버드콜밸런스(합성)월퇴직70%개인연금</t>
+          <t>RISE 코리아금융고배당월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9,485원</t>
+          <t>14,490원</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>92원</t>
+          <t>55원</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.38%</t>
         </is>
       </c>
     </row>
@@ -4081,17 +4081,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>498410</t>
+          <t>0000D0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>KODEX 금융고배당TOP10타겟위클리커버드콜월퇴직70%개인연금</t>
+          <t>TIGER 엔비디아미국채커버드콜밸런스(합성)월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>13,900원</t>
+          <t>9,500원</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>149원</t>
+          <t>92원</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>499660</t>
+          <t>498410</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TIGER CD금리플러스액티브(합성)월퇴직100%개인연금</t>
+          <t>KODEX 금융고배당TOP10타겟위클리커버드콜월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1,001,350원</t>
+          <t>13,280원</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2,100원</t>
+          <t>149원</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>1.12%</t>
         </is>
       </c>
     </row>
@@ -4151,17 +4151,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0005A0</t>
+          <t>499660</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>KODEX 미국S&amp;P500데일리커버드콜OTM월퇴직70%개인연금</t>
+          <t>TIGER CD금리플러스액티브(합성)월퇴직100%개인연금</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>9,235원</t>
+          <t>1,001,635원</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4171,12 +4171,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>110원</t>
+          <t>2,100원</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>0.21%</t>
         </is>
       </c>
     </row>
@@ -4186,32 +4186,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0008S0</t>
+          <t>0005A0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TIGER 미국배당다우존스타겟데일리커버드콜월퇴직70%개인연금</t>
+          <t>KODEX 미국S&amp;P500데일리커버드콜OTM월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>8,830원</t>
+          <t>9,250원</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>88원</t>
+          <t>110원</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>1.19%</t>
         </is>
       </c>
     </row>
@@ -4221,32 +4221,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0004G0</t>
+          <t>0008S0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1Q 미국배당30월퇴직70%개인연금</t>
+          <t>TIGER 미국배당다우존스타겟데일리커버드콜월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>8,940원</t>
+          <t>8,775원</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>22원</t>
+          <t>88원</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>1.00%</t>
         </is>
       </c>
     </row>
@@ -4256,32 +4256,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0015E0</t>
+          <t>0004G0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>KIWOOM 엔비디아미국30년국채혼합액티브(H)월퇴직70%개인연금</t>
+          <t>1Q 미국배당30월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10,265원</t>
+          <t>8,880원</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>20원</t>
+          <t>22원</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.25%</t>
         </is>
       </c>
     </row>
@@ -4291,17 +4291,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0015F0</t>
+          <t>0015E0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>KIWOOM 팔란티어미국30년국채혼합액티브(H)월퇴직70%개인연금</t>
+          <t>KIWOOM 엔비디아미국30년국채혼합액티브(H)월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>10,325원</t>
+          <t>10,265원</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4326,17 +4326,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0013R0</t>
+          <t>0015F0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>RISE 테슬라미국채타겟커버드콜혼합(합성)월퇴직70%개인연금</t>
+          <t>KIWOOM 팔란티어미국30년국채혼합액티브(H)월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>8,775원</t>
+          <t>10,285원</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4346,12 +4346,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>109원</t>
+          <t>20원</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>0.19%</t>
         </is>
       </c>
     </row>
@@ -4361,17 +4361,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0013P0</t>
+          <t>0013R0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>RISE 미국은행TOP10월퇴직70%개인연금</t>
+          <t>RISE 테슬라미국채타겟커버드콜혼합(합성)월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10,010원</t>
+          <t>8,850원</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4381,12 +4381,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>17원</t>
+          <t>109원</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>1.23%</t>
         </is>
       </c>
     </row>
@@ -4396,32 +4396,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0018C0</t>
+          <t>0013P0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PLUS 고배당주위클리고정커버드콜월퇴직70%개인연금</t>
+          <t>RISE 미국은행TOP10월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13,090원</t>
+          <t>9,895원</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>155원</t>
+          <t>17원</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.18%</t>
+          <t>0.17%</t>
         </is>
       </c>
     </row>
@@ -4431,32 +4431,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0022T0</t>
+          <t>0018C0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SOL 골드커버드콜액티브월퇴직70%개인연금</t>
+          <t>PLUS 고배당주위클리고정커버드콜월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>10,725원</t>
+          <t>12,765원</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>36원</t>
+          <t>155원</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>1.21%</t>
         </is>
       </c>
     </row>
@@ -4466,17 +4466,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0040X0</t>
+          <t>0022T0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SOL 팔란티어미국채커버드콜혼합월퇴직100%개인연금</t>
+          <t>SOL 골드커버드콜액티브월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10,920원</t>
+          <t>10,770원</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>150원</t>
+          <t>36원</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>0.33%</t>
         </is>
       </c>
     </row>
@@ -4501,17 +4501,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0040Y0</t>
+          <t>0040X0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SOL 팔란티어커버드콜OTM채권혼합월퇴직100%개인연금</t>
+          <t>SOL 팔란티어미국채커버드콜혼합월퇴직100%개인연금</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>10,510원</t>
+          <t>10,970원</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>230원</t>
+          <t>150원</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2.19%</t>
+          <t>1.37%</t>
         </is>
       </c>
     </row>
@@ -4536,32 +4536,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0046A0</t>
+          <t>0040Y0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TIGER 미국초단기(3개월이하)국채월퇴직100%개인연금</t>
+          <t>SOL 팔란티어커버드콜OTM채권혼합월퇴직100%개인연금</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>9,565원</t>
+          <t>10,540원</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>30원</t>
+          <t>230원</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>2.18%</t>
         </is>
       </c>
     </row>
@@ -4571,32 +4571,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0036D0</t>
+          <t>0046A0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TIMEFOLIO 미국배당다우존스액티브월퇴직70%개인연금</t>
+          <t>TIGER 미국초단기(3개월이하)국채월퇴직100%개인연금</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10,320원</t>
+          <t>9,640원</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>52원</t>
+          <t>30원</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.31%</t>
         </is>
       </c>
     </row>
@@ -4606,32 +4606,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0048J0</t>
+          <t>0036D0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>KODEX 미국머니마켓액티브월퇴직100%개인연금</t>
+          <t>TIMEFOLIO 미국배당다우존스액티브월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>13,835원</t>
+          <t>10,330원</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>74원</t>
+          <t>52원</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.50%</t>
         </is>
       </c>
     </row>
@@ -4641,17 +4641,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>0049M0</t>
+          <t>0048J0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ACE 미국배당퀄리티+커버드콜액티브월퇴직70%개인연금</t>
+          <t>KODEX 미국머니마켓액티브월퇴직100%개인연금</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>10,435원</t>
+          <t>13,955원</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>101원</t>
+          <t>74원</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.53%</t>
         </is>
       </c>
     </row>
@@ -4676,17 +4676,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>0046Y0</t>
+          <t>0049M0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ACE 미국배당퀄리티월퇴직70%개인연금</t>
+          <t>ACE 미국배당퀄리티+커버드콜액티브월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>10,705원</t>
+          <t>10,450원</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>29원</t>
+          <t>101원</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -4711,17 +4711,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>0049K0</t>
+          <t>0046Y0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ACE 미국배당퀄리티채권혼합50월퇴직100%개인연금</t>
+          <t>ACE 미국배당퀄리티월퇴직70%개인연금</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10,345원</t>
+          <t>10,705원</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4731,12 +4731,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>34원</t>
+          <t>29원</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.27%</t>
         </is>
       </c>
     </row>
@@ -4746,32 +4746,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>0052D0</t>
+          <t>0049K0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>TIGER 코리아배당다우존스월퇴직70%개인연금</t>
+          <t>ACE 미국배당퀄리티채권혼합50월퇴직100%개인연금</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>12,950원</t>
+          <t>10,345원</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>48원</t>
+          <t>34원</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>0.33%</t>
         </is>
       </c>
     </row>
@@ -4781,30 +4781,100 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>0052D0</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>TIGER 코리아배당다우존스월퇴직70%개인연금</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>12,630원</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>48원</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>0073X0</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>FOCUS 알리바바미국채커버드콜혼합월퇴직70%개인연금</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>9,955원</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>10,150원</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0080X0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SOL 미국S&amp;P500미국채혼합50월퇴직70%개인연금</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>10,070원</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>-</t>
         </is>
